--- a/atividade2.xlsx
+++ b/atividade2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurih\Documents\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60DD7177-10EF-4E1A-898A-35431B33C43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B203F57-219A-4D8B-B693-17128349408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EB8BBCD1-78A1-42CB-8E9E-F139B65C59C4}"/>
   </bookViews>
@@ -36,24 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>OBJETIVOS ORGANIZACIONAL 1:</t>
-  </si>
-  <si>
-    <t>Objetivos da Gestão de Pessoas</t>
-  </si>
-  <si>
-    <t>Etapas</t>
-  </si>
-  <si>
-    <t>Prazo para Implementação</t>
-  </si>
-  <si>
-    <t>OBJETIVOS ORGANIZACIONAL 2:</t>
-  </si>
-  <si>
-    <t>OBJETIVOS ORGANIZACIONAL 3:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t>AREA ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>Ação proposta</t>
+  </si>
+  <si>
+    <t>Justificativa</t>
+  </si>
+  <si>
+    <t>AREA COMERCIAL</t>
+  </si>
+  <si>
+    <t>AREA DE PRODUÇÃO</t>
+  </si>
+  <si>
+    <t>PROPOSTAS COMUNS</t>
+  </si>
+  <si>
+    <t>Criar um programa de incentivo à inovação interna, permitindo que os colaboradores apresentem ideias para novos projetos.</t>
+  </si>
+  <si>
+    <t>A Microsoft valoriza a inovação como parte de sua cultura. Segundo a Teoria da Autodeterminação (Deci e Ryan), fornecer autonomia e oportunidades para que os funcionários contribuam com suas ideias estimula a criatividade e a motivação intrínseca.</t>
+  </si>
+  <si>
+    <t>Implementar um programa de recompensas que inclui bônus por metas alcançadas e reconhecimento público em eventos internos da empresa.</t>
+  </si>
+  <si>
+    <t>A Teoria da Expectativa (Vroom) sugere que os funcionários são mais motivados quando acreditam que seus esforços resultarão em recompensas tangíveis, como bônus financeiros e reconhecimento público.</t>
+  </si>
+  <si>
+    <t>Aumentar a flexibilidade no trabalho, com horários flexíveis e maior opção de trabalho remoto.</t>
+  </si>
+  <si>
+    <t>A Microsoft já promove um ambiente de trabalho flexível. De acordo com a Teoria dos Dois Fatores de Herzberg, melhorar fatores higiênicos como a flexibilidade e o equilíbrio entre trabalho e vida pessoal ajuda a reduzir a insatisfação, resultando em um ambiente mais produtivo e saudável.</t>
+  </si>
+  <si>
+    <t>Oferecer programas de bem-estar mental e físico, como apoio psicológico, academias e sessões de meditação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Microsoft já investe em saúde e bem-estar para seus colaboradores. Com base na Teoria de Maslow, ao atender necessidades básicas de segurança e saúde, a empresa cria um ambiente que permite aos funcionários se concentrarem em níveis mais elevados de realização, como o crescimento pessoal e profissional.</t>
   </si>
 </sst>
 </file>
@@ -123,17 +147,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,122 +505,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D094D1D0-65FD-42B4-B947-EAD176476F38}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4"/>
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
